--- a/data/long_razon/P23_7-Estudios-long_razon.xlsx
+++ b/data/long_razon/P23_7-Estudios-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-41,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>28,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-12,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-27,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,47%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-69,75; -2,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-21,22; 146,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-40,67; 33,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-31,69; 40,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-49,96; -1,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,35; 67,94</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-17,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>32,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-9,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23,91%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-31,59; 43,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-20,73; 76,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-37,63; 11,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 85,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-28,03; 16,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 58,28</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-27,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-18,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>95,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-6,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,46%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,39 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-35,09; 67,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-52,71; 9,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-45,95; 15,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>41,7; 192,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-30,68; 25,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,38; 50,3</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-10,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-16,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>37,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-13,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,57%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,45 +1144,223 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-32,11; 16,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-18,13; 38,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,36; 0,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,32; 67,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-27,7; 1,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,61; 39,43</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P23_7-Estudios-long_razon.xlsx
+++ b/data/long_razon/P23_7-Estudios-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
+      <c r="J4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="inlineStr"/>
+      <c r="L4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="inlineStr"/>
+      <c r="N4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="inlineStr"/>
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="inlineStr"/>
+      <c r="N5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
+      <c r="J6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr"/>
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="J7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="inlineStr"/>
+      <c r="L7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="inlineStr"/>
+      <c r="N7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="J8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr"/>
+      <c r="L8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="inlineStr"/>
+      <c r="N8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="J9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="inlineStr"/>
+      <c r="L9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="inlineStr"/>
+      <c r="N9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,293 +787,140 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="inlineStr"/>
+      <c r="L10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="inlineStr"/>
+      <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="inlineStr"/>
+      <c r="L11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="inlineStr"/>
+      <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="inlineStr"/>
+      <c r="L12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="inlineStr"/>
+      <c r="N12" s="5" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="inlineStr"/>
+      <c r="D13" s="5" t="inlineStr"/>
+      <c r="E13" s="5" t="inlineStr"/>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="J13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="inlineStr"/>
+      <c r="L13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="inlineStr"/>
+      <c r="N13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="J14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="inlineStr"/>
+      <c r="L14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="inlineStr"/>
+      <c r="N14" s="5" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="J15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="inlineStr"/>
+      <c r="L15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="inlineStr"/>
+      <c r="N15" s="5" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P23_7-Estudios-long_razon.xlsx
+++ b/data/long_razon/P23_7-Estudios-long_razon.xlsx
@@ -659,17 +659,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.5246959298458476</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.2555655356493474</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.02580403939720579</v>
+      </c>
       <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="n">
+        <v>-0.2050447822839279</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.050210015301897</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.1396823662119782</v>
+      </c>
       <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="n">
+        <v>-0.3646303675644323</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.1428844518139572</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.07725156007569658</v>
+      </c>
       <c r="N4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
@@ -679,17 +697,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.7777475695622834</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.2181033990460217</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.4929141732167365</v>
+      </c>
       <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="n">
+        <v>-0.5317900046217687</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.3008744369169312</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.4835233062114924</v>
+      </c>
       <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="n">
+        <v>-0.592816177710808</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.1721605982956688</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.3893246505589903</v>
+      </c>
       <c r="N5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -699,17 +735,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>-0.2076472530182662</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.483010797644934</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.053497347891533</v>
+      </c>
       <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="n">
+        <v>0.2651128268711952</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.5737870500071128</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.4515732015632866</v>
+      </c>
       <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="n">
+        <v>-0.05449486947146336</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.6510836606909201</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.3423893583248683</v>
+      </c>
       <c r="N6" s="5" t="inlineStr"/>
     </row>
     <row r="7">
@@ -723,17 +777,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>0.1397227863512201</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.1134531998932453</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.02680259062416028</v>
+      </c>
       <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="n">
+        <v>-0.1276752594443211</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.2992578169006993</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.1294557837088331</v>
+      </c>
       <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="n">
+        <v>-0.00684837578288085</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.1974262340371473</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.07191053229574743</v>
+      </c>
       <c r="N7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
@@ -743,17 +815,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.2521072878865659</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.2605806101918012</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.3117999852246469</v>
+      </c>
       <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="n">
+        <v>-0.3739814282196155</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.01928830953640005</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.1673236405650194</v>
+      </c>
       <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="n">
+        <v>-0.2178705248794749</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.1044708498766052</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.1765946402831108</v>
+      </c>
       <c r="N8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
@@ -763,17 +853,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.6858445670015233</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.6283361236170085</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.5553621828301076</v>
+      </c>
       <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="n">
+        <v>0.2002251829191219</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.7325088058163197</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.5959540901695113</v>
+      </c>
       <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="n">
+        <v>0.3134901590449417</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.509269121939909</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.4306246126250716</v>
+      </c>
       <c r="N9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
@@ -787,17 +895,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>0.356285481242369</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.292142470247389</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.231088389585647</v>
+      </c>
       <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="n">
+        <v>-0.2488607898922619</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.9581743262437807</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.5232055945428639</v>
+      </c>
       <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="n">
+        <v>0.004664500596373809</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.1738158168659465</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.851309440626818</v>
+      </c>
       <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
@@ -807,17 +933,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.1721361011035889</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.5438495601286242</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3860158684660377</v>
+      </c>
       <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="n">
+        <v>-0.4916820636292507</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>0.3998427185913408</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0.04389490368150491</v>
+      </c>
       <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="n">
+        <v>-0.2525748611690022</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.08804796081271225</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>0.4010520043833752</v>
+      </c>
       <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
@@ -827,17 +971,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>1.172159165621381</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.05715870495329504</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.557945779815166</v>
+      </c>
       <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="n">
+        <v>0.1457354637227387</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>1.757025412521831</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.177247737567644</v>
+      </c>
       <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="n">
+        <v>0.4445016834951989</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.5448410020931284</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>1.571438803485442</v>
+      </c>
       <c r="N12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
@@ -851,17 +1013,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>0.0003097289069807037</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.01091272713142041</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.2904575967436873</v>
+      </c>
       <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="n">
+        <v>-0.1799198779674939</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.3752145762436133</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.1374124954847724</v>
+      </c>
       <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="n">
+        <v>-0.09777773938685418</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.1764894956197947</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.2122746522330593</v>
+      </c>
       <c r="N13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
@@ -871,17 +1051,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.265461118099617</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.2056506335155409</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.03569119309417827</v>
+      </c>
       <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="n">
+        <v>-0.3564132599136074</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.1280706373365172</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.09448167371808147</v>
+      </c>
       <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="n">
+        <v>-0.2549120190109239</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0.01812442817804636</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>0.01697911589835529</v>
+      </c>
       <c r="N14" s="5" t="inlineStr"/>
     </row>
     <row r="15">
@@ -891,17 +1089,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.3401067265024365</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.3089201551346806</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.7206793879942246</v>
+      </c>
       <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="n">
+        <v>0.03828768437553176</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.6643836833967046</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.4141648697308717</v>
+      </c>
       <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="n">
+        <v>0.07416928286860593</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.4022663884025894</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.4432063673957728</v>
+      </c>
       <c r="N15" s="5" t="inlineStr"/>
     </row>
     <row r="16">
